--- a/greedy_fitting/comparison/Comparison.xlsx
+++ b/greedy_fitting/comparison/Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hehon\Desktop\robodk\Motion-Primitive-Planning\greedy_fitting\comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDA9B6D-7AFA-4D86-B3BD-91DBC4E7169B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E6F95A-3217-4371-8784-10941FC63C98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3984" yWindow="3552" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MoveL" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="12">
   <si>
     <t>Speed/Blending</t>
-  </si>
-  <si>
-    <t>Max Error Table</t>
-  </si>
-  <si>
-    <t>v5</t>
   </si>
   <si>
     <t>v50</t>
@@ -53,9 +47,6 @@
     <t>z10</t>
   </si>
   <si>
-    <t>AVG Error Table</t>
-  </si>
-  <si>
     <t>v5000</t>
   </si>
   <si>
@@ -69,6 +60,9 @@
   </si>
   <si>
     <t>AVG Error Table (projected error)</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -386,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:V5"/>
+  <dimension ref="B1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,16 +396,16 @@
   <sheetData>
     <row r="1" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.3">
@@ -419,199 +413,260 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M2" t="s">
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S2" t="s">
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1.23791730367659</v>
+        <v>1.2534644642886601</v>
       </c>
       <c r="D3">
-        <v>1.12811525422291</v>
+        <v>2.90536269162746</v>
       </c>
       <c r="E3">
-        <v>1.0562874898547401</v>
+        <v>3.4400269775007599</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>1.22528003185073</v>
+        <v>1.2603118994110001</v>
       </c>
       <c r="I3">
-        <v>1.1124930361718901</v>
+        <v>3.0039585947396099</v>
       </c>
       <c r="J3">
-        <v>1.0403520651851299</v>
+        <v>3.57488107450799</v>
       </c>
       <c r="M3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3">
-        <v>0.44906550592578198</v>
+        <v>0.44142324020380103</v>
       </c>
       <c r="O3">
-        <v>0.63970745552976005</v>
+        <v>0.83403248860989498</v>
       </c>
       <c r="P3">
-        <v>0.66412092735404904</v>
+        <v>1.0033919329610801</v>
       </c>
       <c r="S3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T3">
-        <v>0.44577307489613499</v>
+        <v>0.43879759944004398</v>
       </c>
       <c r="U3">
-        <v>0.63954902471629504</v>
+        <v>0.84590982600780595</v>
       </c>
       <c r="V3">
-        <v>0.66402579617389101</v>
+        <v>1.0225447970001</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>1.24132024095356</v>
+        <v>1.1464549543318401</v>
       </c>
       <c r="D4">
-        <v>1.2069987006468501</v>
+        <v>2.90536269162746</v>
       </c>
       <c r="E4">
-        <v>1.0433410813375401</v>
+        <v>3.4350241947318798</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>1.22873477972379</v>
+        <v>1.1590687876660599</v>
       </c>
       <c r="I4">
-        <v>1.1936467559739099</v>
+        <v>3.0039585947396099</v>
       </c>
       <c r="J4">
-        <v>1.0269799402111901</v>
+        <v>3.5697130711441898</v>
       </c>
       <c r="M4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N4">
-        <v>0.43127366919704802</v>
+        <v>0.42589679796332902</v>
       </c>
       <c r="O4">
-        <v>0.47701634896094502</v>
+        <v>0.60332657188360495</v>
       </c>
       <c r="P4">
-        <v>0.48886286580178501</v>
+        <v>0.83485879288144504</v>
       </c>
       <c r="S4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T4">
-        <v>0.42809400952080501</v>
+        <v>0.42290922854968199</v>
       </c>
       <c r="U4">
-        <v>0.47602041719421501</v>
+        <v>0.61948944472414602</v>
       </c>
       <c r="V4">
-        <v>0.48820626395366301</v>
+        <v>0.849026092449223</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>2.0385047642463499</v>
+        <v>1.1395002712342099</v>
       </c>
       <c r="D5">
-        <v>2.6690532050427098</v>
+        <v>2.90536269162746</v>
       </c>
       <c r="E5">
-        <v>2.1972133390588899</v>
+        <v>3.44991065583628</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>2.0694209754792801</v>
+        <v>1.1523931567916099</v>
       </c>
       <c r="I5">
-        <v>2.7093850026711501</v>
+        <v>3.0039585947396099</v>
       </c>
       <c r="J5">
-        <v>2.2297782129927199</v>
+        <v>3.5850283768173901</v>
       </c>
       <c r="M5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N5">
-        <v>0.41504876114950001</v>
+        <v>0.40474532043538097</v>
       </c>
       <c r="O5">
-        <v>0.41621402885193898</v>
+        <v>0.48890075820611001</v>
       </c>
       <c r="P5">
-        <v>0.42111056729174701</v>
+        <v>0.80959561834952698</v>
       </c>
       <c r="S5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T5">
-        <v>0.412718583363822</v>
+        <v>0.402475086083394</v>
       </c>
       <c r="U5">
-        <v>0.41810894832522799</v>
+        <v>0.497171073682386</v>
       </c>
       <c r="V5">
-        <v>0.41936367292462901</v>
+        <v>0.83085468928971695</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>35.914999999999999</v>
+      </c>
+      <c r="M10">
+        <v>6.9639999999999898</v>
+      </c>
+      <c r="N10">
+        <v>3.57488107450799</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>34.18</v>
+      </c>
+      <c r="M11">
+        <v>3.74</v>
+      </c>
+      <c r="N11">
+        <v>3.5697130711441898</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>33.936999999999998</v>
+      </c>
+      <c r="M12">
+        <v>2.9959999999999898</v>
+      </c>
+      <c r="N12">
+        <v>3.5850283768173901</v>
       </c>
     </row>
   </sheetData>
@@ -621,10 +676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE45F0C-9A2F-406E-9A31-EAEFACAFEFF3}">
-  <dimension ref="B1:J5"/>
+  <dimension ref="B1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J6"/>
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,62 +688,279 @@
     <col min="7" max="7" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1.1902978185804101</v>
+      </c>
+      <c r="D3">
+        <v>2.4456162456956201</v>
+      </c>
+      <c r="E3">
+        <v>3.7666703585535699</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>1.2371550592325899</v>
+      </c>
+      <c r="I3">
+        <v>2.5630275219524301</v>
+      </c>
+      <c r="J3">
+        <v>4.0073106739171296</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>0.51761149316393995</v>
+      </c>
+      <c r="O3">
+        <v>0.75983597814496395</v>
+      </c>
+      <c r="P3">
+        <v>1.07143348731804</v>
+      </c>
+      <c r="S3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>0.60493932001874395</v>
+      </c>
+      <c r="U3">
+        <v>0.78165314467320102</v>
+      </c>
+      <c r="V3">
+        <v>1.0789398218461701</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1.1886355419783601</v>
+      </c>
+      <c r="D4">
+        <v>2.4456162456956201</v>
+      </c>
+      <c r="E4">
+        <v>3.76855626821165</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>1.2368277468659501</v>
+      </c>
+      <c r="I4">
+        <v>2.5630275219524301</v>
+      </c>
+      <c r="J4">
+        <v>4.0092242665639297</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>0.50454227891693504</v>
+      </c>
+      <c r="O4">
+        <v>0.65520863013025898</v>
+      </c>
+      <c r="P4">
+        <v>1.0809380250831799</v>
+      </c>
+      <c r="S4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>0.59579925593901095</v>
+      </c>
+      <c r="U4">
+        <v>0.68336988857916503</v>
+      </c>
+      <c r="V4">
+        <v>1.08881902755444</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1.1724762184940201</v>
+      </c>
+      <c r="D5">
+        <v>2.4456162456956201</v>
+      </c>
+      <c r="E5">
+        <v>3.76855626821165</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>1.23679630843217</v>
+      </c>
+      <c r="I5">
+        <v>2.5630275219524301</v>
+      </c>
+      <c r="J5">
+        <v>4.0092242665639297</v>
+      </c>
+      <c r="M5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>0.50305955061367902</v>
+      </c>
+      <c r="O5">
+        <v>0.629560350678532</v>
+      </c>
+      <c r="P5">
+        <v>1.11264602999896</v>
+      </c>
+      <c r="S5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>0.59412931175174799</v>
+      </c>
+      <c r="U5">
+        <v>0.65310520506888003</v>
+      </c>
+      <c r="V5">
+        <v>1.1354672811526501</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>35.555999999999997</v>
+      </c>
+      <c r="M10">
+        <v>5.8719999999999901</v>
+      </c>
+      <c r="N10">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>34.143999999999998</v>
+      </c>
+      <c r="M11">
+        <v>3.6440000000000001</v>
+      </c>
+      <c r="N11">
+        <v>2.2759999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>34</v>
+      </c>
+      <c r="M12">
+        <v>3.3079999999999901</v>
+      </c>
+      <c r="N12">
+        <v>1.796</v>
       </c>
     </row>
   </sheetData>
@@ -698,74 +970,293 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48695607-6AE5-4958-BF00-39252E469FD1}">
-  <dimension ref="B1:J5"/>
+  <dimension ref="B1:V12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.5546875" customWidth="1"/>
     <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="19" max="19" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1.7129988952397901</v>
+      </c>
+      <c r="D3">
+        <v>2.4456162456956201</v>
+      </c>
+      <c r="E3">
+        <v>3.7666703585535699</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>1.5266707937309001</v>
+      </c>
+      <c r="I3">
+        <v>2.5630275219524301</v>
+      </c>
+      <c r="J3">
+        <v>4.0073106739171296</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>0.50446307610454399</v>
+      </c>
+      <c r="O3">
+        <v>0.66270616516690095</v>
+      </c>
+      <c r="P3">
+        <v>1.0688908961977399</v>
+      </c>
+      <c r="S3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>0.56400774008764598</v>
+      </c>
+      <c r="U3">
+        <v>0.68324888368396797</v>
+      </c>
+      <c r="V3">
+        <v>1.0723234085970299</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1.7116602311290601</v>
+      </c>
+      <c r="D4">
+        <v>2.4456162456956201</v>
+      </c>
+      <c r="E4">
+        <v>3.76855626821165</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>1.52609283022005</v>
+      </c>
+      <c r="I4">
+        <v>2.5630275219524301</v>
+      </c>
+      <c r="J4">
+        <v>4.0092242665639297</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>0.50544944637439504</v>
+      </c>
+      <c r="O4">
+        <v>0.61385200481944002</v>
+      </c>
+      <c r="P4">
+        <v>1.1641147563132701</v>
+      </c>
+      <c r="S4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>0.56676722869983898</v>
+      </c>
+      <c r="U4">
+        <v>0.58803408931432299</v>
+      </c>
+      <c r="V4">
+        <v>1.13011414876414</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1.7117246075913599</v>
+      </c>
+      <c r="D5">
+        <v>2.4456162456956201</v>
+      </c>
+      <c r="E5">
+        <v>3.76855626821165</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>1.5262601096539701</v>
+      </c>
+      <c r="I5">
+        <v>2.5630275219524301</v>
+      </c>
+      <c r="J5">
+        <v>4.0092242665639297</v>
+      </c>
+      <c r="M5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>0.50407861523256803</v>
+      </c>
+      <c r="O5">
+        <v>0.61269625399137595</v>
+      </c>
+      <c r="P5">
+        <v>1.2879801084517299</v>
+      </c>
+      <c r="S5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>0.56601754621497402</v>
+      </c>
+      <c r="U5">
+        <v>0.56462970051834105</v>
+      </c>
+      <c r="V5">
+        <v>1.26285871248348</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>35.14</v>
+      </c>
+      <c r="M10">
+        <v>4.9359999999999999</v>
+      </c>
+      <c r="N10">
+        <v>3.6359999999999899</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>34.159999999999997</v>
+      </c>
+      <c r="M11">
+        <v>3.3079999999999998</v>
+      </c>
+      <c r="N11">
+        <v>1.748</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>33.92</v>
+      </c>
+      <c r="M12">
+        <v>2.9719999999999902</v>
+      </c>
+      <c r="N12">
+        <v>1.26799999999999</v>
       </c>
     </row>
   </sheetData>

--- a/greedy_fitting/comparison/Comparison.xlsx
+++ b/greedy_fitting/comparison/Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hehon\Desktop\robodk\Motion-Primitive-Planning\greedy_fitting\comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E6F95A-3217-4371-8784-10941FC63C98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886BB299-AF6B-4F54-B2E1-DE48FED538DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MoveL" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="17">
   <si>
     <t>Speed/Blending</t>
   </si>
@@ -63,6 +63,21 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>v5_tests</t>
+  </si>
+  <si>
+    <t>Max Error1</t>
+  </si>
+  <si>
+    <t>Max Error2</t>
+  </si>
+  <si>
+    <t>AVG Error1</t>
+  </si>
+  <si>
+    <t>AVG Error2</t>
   </si>
 </sst>
 </file>
@@ -676,10 +691,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE45F0C-9A2F-406E-9A31-EAEFACAFEFF3}">
-  <dimension ref="B1:V12"/>
+  <dimension ref="B1:AD12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,7 +703,7 @@
     <col min="7" max="7" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>7</v>
       </c>
@@ -701,8 +716,23 @@
       <c r="T1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -751,8 +781,26 @@
       <c r="V2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="Y2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2">
+        <v>1.0122192062917199</v>
+      </c>
+      <c r="AA2">
+        <v>1.2369041233420199</v>
+      </c>
+      <c r="AB2">
+        <v>0.51051999470430498</v>
+      </c>
+      <c r="AC2">
+        <v>0.59969667827236395</v>
+      </c>
+      <c r="AD2">
+        <v>347.66</v>
+      </c>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -801,8 +849,26 @@
       <c r="V3">
         <v>1.0789398218461701</v>
       </c>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="Y3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z3">
+        <v>0.99339672498953502</v>
+      </c>
+      <c r="AA3">
+        <v>1.23650413309433</v>
+      </c>
+      <c r="AB3">
+        <v>0.50883914341024505</v>
+      </c>
+      <c r="AC3">
+        <v>0.59883228143893497</v>
+      </c>
+      <c r="AD3">
+        <v>346.38400000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -851,8 +917,26 @@
       <c r="V4">
         <v>1.08881902755444</v>
       </c>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="Y4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4">
+        <v>0.98986567709852302</v>
+      </c>
+      <c r="AA4">
+        <v>1.2366953756665999</v>
+      </c>
+      <c r="AB4">
+        <v>0.505159700333076</v>
+      </c>
+      <c r="AC4">
+        <v>0.59547456644770402</v>
+      </c>
+      <c r="AD4">
+        <v>344.916</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -902,12 +986,12 @@
         <v>1.1354672811526501</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.3">
       <c r="L8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
       <c r="K9" t="s">
         <v>0</v>
       </c>
@@ -921,7 +1005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.3">
       <c r="K10" t="s">
         <v>3</v>
       </c>
@@ -935,7 +1019,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.3">
       <c r="K11" t="s">
         <v>4</v>
       </c>
@@ -949,7 +1033,7 @@
         <v>2.2759999999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.3">
       <c r="K12" t="s">
         <v>5</v>
       </c>
@@ -972,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48695607-6AE5-4958-BF00-39252E469FD1}">
   <dimension ref="B1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -982,6 +1066,10 @@
     <col min="7" max="7" width="15.44140625" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" customWidth="1"/>
     <col min="19" max="19" width="13.88671875" customWidth="1"/>
+    <col min="25" max="25" width="6.44140625" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" customWidth="1"/>
+    <col min="27" max="27" width="10.21875" customWidth="1"/>
+    <col min="28" max="28" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22" x14ac:dyDescent="0.3">

--- a/greedy_fitting/comparison/Comparison.xlsx
+++ b/greedy_fitting/comparison/Comparison.xlsx
@@ -8,26 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hehon\Desktop\robodk\Motion-Primitive-Planning\greedy_fitting\comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886BB299-AF6B-4F54-B2E1-DE48FED538DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AFD4C2-1564-4D78-95C3-C39EC9E0C747}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MoveL" sheetId="1" r:id="rId1"/>
     <sheet name="MoveC" sheetId="2" r:id="rId2"/>
     <sheet name="MoveL+MoveC" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="19">
   <si>
     <t>Speed/Blending</t>
   </si>
@@ -78,6 +87,12 @@
   </si>
   <si>
     <t>AVG Error2</t>
+  </si>
+  <si>
+    <t>AVG Max Error Table</t>
+  </si>
+  <si>
+    <t>AVG AVG Error Table</t>
   </si>
 </sst>
 </file>
@@ -130,6 +145,6488 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> Max Error (MoveL)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MoveL!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>MoveL!$C$9:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MoveL!$C$10:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.2568881818498301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9546606431835349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5074540260043747</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88EB-4A7E-96F7-9D514EA49A46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MoveL!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>MoveL!$C$9:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MoveL!$C$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.15276187099895</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9546606431835349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.502368632938035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-88EB-4A7E-96F7-9D514EA49A46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MoveL!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>MoveL!$C$9:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MoveL!$C$12:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.14594671401291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9546606431835349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5174695163268348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-88EB-4A7E-96F7-9D514EA49A46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="631666271"/>
+        <c:axId val="631652543"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="631666271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631652543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="631652543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631666271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> Average Error (MoveL)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MoveL!$S$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>MoveL!$T$9:$V$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MoveL!$T$10:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.4401104198219225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83997115730885041</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0129683649805901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BF1-4DEC-9307-66D0875E7B28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MoveL!$S$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>MoveL!$T$9:$V$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MoveL!$T$11:$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.42440301325650553</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61140800830387554</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84194244266533402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4BF1-4DEC-9307-66D0875E7B28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MoveL!$S$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>MoveL!$T$9:$V$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MoveL!$T$12:$V$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.40361020325938746</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.493035915944248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82022515381962191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4BF1-4DEC-9307-66D0875E7B28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="498206815"/>
+        <c:axId val="498213887"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="498206815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498213887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="498213887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498206815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average Max Error (MoveC)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MoveC!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>MoveC!$C$9:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MoveC!$C$10:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.2137264389064999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5043218838240251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8869905162353495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC16-4FDF-AA50-7EA9F18E5169}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MoveC!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>MoveC!$C$9:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MoveC!$C$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.212731644422155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5043218838240251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8888902673877901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC16-4FDF-AA50-7EA9F18E5169}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MoveC!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>MoveC!$C$9:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MoveC!$C$12:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.2046362634630952</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5043218838240251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8888902673877901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BC16-4FDF-AA50-7EA9F18E5169}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="631658367"/>
+        <c:axId val="631658783"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="631658367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631658783"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="631658783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631658367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average Average Error (MoveC)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MoveC!$S$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>MoveC!$T$9:$V$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MoveC!$T$10:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.5612754065913419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77074456140908243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0751866545821049</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1128-487A-A4B3-109A9A17C5E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MoveC!$S$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>MoveC!$T$9:$V$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MoveC!$T$11:$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.550170767427973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66928925935471195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0848785263188101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1128-487A-A4B3-109A9A17C5E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MoveC!$S$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>MoveC!$T$9:$V$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MoveC!$T$12:$V$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.54859443118271356</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64133277787370602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1240566555758051</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1128-487A-A4B3-109A9A17C5E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="631672095"/>
+        <c:axId val="631671263"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="631672095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631671263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="631671263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631672095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average Max Error (MoveL+MoveC)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MoveL+MoveC'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MoveL+MoveC'!$C$9:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MoveL+MoveC'!$C$10:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.6198348444853452</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5043218838240251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8869905162353495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D37B-42C6-BB9E-45C55F5430BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MoveL+MoveC'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MoveL+MoveC'!$C$9:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MoveL+MoveC'!$C$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.6188765306745552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5043218838240251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8888902673877901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D37B-42C6-BB9E-45C55F5430BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MoveL+MoveC'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MoveL+MoveC'!$C$9:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MoveL+MoveC'!$C$12:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.6189923586226649</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5043218838240251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8888902673877901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D37B-42C6-BB9E-45C55F5430BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="631616351"/>
+        <c:axId val="631634239"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="631616351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631634239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="631634239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631616351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average Average Error (MoveL+MoveC)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MoveL+MoveC'!$S$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MoveL+MoveC'!$T$9:$V$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MoveL+MoveC'!$T$10:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.53423540809609493</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67297752442543446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0706071523973848</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D053-4AD7-A319-B0532473EE83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MoveL+MoveC'!$S$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MoveL+MoveC'!$T$9:$V$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MoveL+MoveC'!$T$11:$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.53610833753711695</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60094304706688151</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1471144525387049</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D053-4AD7-A319-B0532473EE83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MoveL+MoveC'!$S$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MoveL+MoveC'!$T$9:$V$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MoveL+MoveC'!$T$12:$V$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.53504808072377097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5886629772548585</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2754194104676051</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D053-4AD7-A319-B0532473EE83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="498202655"/>
+        <c:axId val="498204319"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="498202655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498204319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="498204319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498202655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{210F9FA3-1917-4046-BE6D-2C9562B2CF9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D9BF8D-F868-41E0-8D68-6A2BF1BAB711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A70C922-5A87-476D-B442-D08D7EC9B100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45EF857E-3EBE-4F7A-B92C-B2BAC6C0ED0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4575BEA3-F788-43B1-B606-CEA4C3A662D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7AF9402-A898-448F-BEB1-AE0B53AF3C7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,7 +6895,7 @@
   <dimension ref="B1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="S8" sqref="S8:V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,11 +7121,29 @@
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
       <c r="L8" t="s">
         <v>11</v>
       </c>
+      <c r="T8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
       <c r="K9" t="s">
         <v>0</v>
       </c>
@@ -641,8 +7156,35 @@
       <c r="N9" t="s">
         <v>6</v>
       </c>
+      <c r="S9" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1</v>
+      </c>
+      <c r="U9" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <f>(C3+H3)/2</f>
+        <v>1.2568881818498301</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:E10" si="0">(D3+I3)/2</f>
+        <v>2.9546606431835349</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3.5074540260043747</v>
+      </c>
       <c r="K10" t="s">
         <v>3</v>
       </c>
@@ -655,8 +7197,38 @@
       <c r="N10">
         <v>3.57488107450799</v>
       </c>
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <f>(N3+T3)/2</f>
+        <v>0.4401104198219225</v>
+      </c>
+      <c r="U10">
+        <f t="shared" ref="U10:V10" si="1">(O3+U3)/2</f>
+        <v>0.83997115730885041</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>1.0129683649805901</v>
+      </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:C12" si="2">(C4+H4)/2</f>
+        <v>1.15276187099895</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D12" si="3">(D4+I4)/2</f>
+        <v>2.9546606431835349</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:E12" si="4">(E4+J4)/2</f>
+        <v>3.502368632938035</v>
+      </c>
       <c r="K11" t="s">
         <v>4</v>
       </c>
@@ -669,8 +7241,38 @@
       <c r="N11">
         <v>3.5697130711441898</v>
       </c>
+      <c r="S11" t="s">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <f t="shared" ref="T11:T12" si="5">(N4+T4)/2</f>
+        <v>0.42440301325650553</v>
+      </c>
+      <c r="U11">
+        <f t="shared" ref="U11:U12" si="6">(O4+U4)/2</f>
+        <v>0.61140800830387554</v>
+      </c>
+      <c r="V11">
+        <f t="shared" ref="V11:V12" si="7">(P4+V4)/2</f>
+        <v>0.84194244266533402</v>
+      </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>1.14594671401291</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>2.9546606431835349</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>3.5174695163268348</v>
+      </c>
       <c r="K12" t="s">
         <v>5</v>
       </c>
@@ -682,10 +7284,26 @@
       </c>
       <c r="N12">
         <v>3.5850283768173901</v>
+      </c>
+      <c r="S12" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="5"/>
+        <v>0.40361020325938746</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="6"/>
+        <v>0.493035915944248</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="7"/>
+        <v>0.82022515381962191</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -693,8 +7311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE45F0C-9A2F-406E-9A31-EAEFACAFEFF3}">
   <dimension ref="B1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S9" sqref="S9:V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,11 +7605,29 @@
       </c>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
       <c r="L8" t="s">
         <v>11</v>
       </c>
+      <c r="T8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
       <c r="K9" t="s">
         <v>0</v>
       </c>
@@ -1004,8 +7640,35 @@
       <c r="N9" t="s">
         <v>6</v>
       </c>
+      <c r="S9" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1</v>
+      </c>
+      <c r="U9" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <f>(C3+H3)/2</f>
+        <v>1.2137264389064999</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:E12" si="0">(D3+I3)/2</f>
+        <v>2.5043218838240251</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3.8869905162353495</v>
+      </c>
       <c r="K10" t="s">
         <v>3</v>
       </c>
@@ -1018,8 +7681,38 @@
       <c r="N10">
         <v>4.76</v>
       </c>
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <f>(N3+T3)/2</f>
+        <v>0.5612754065913419</v>
+      </c>
+      <c r="U10">
+        <f t="shared" ref="U10:V12" si="1">(O3+U3)/2</f>
+        <v>0.77074456140908243</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>1.0751866545821049</v>
+      </c>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:C12" si="2">(C4+H4)/2</f>
+        <v>1.212731644422155</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2.5043218838240251</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>3.8888902673877901</v>
+      </c>
       <c r="K11" t="s">
         <v>4</v>
       </c>
@@ -1032,8 +7725,38 @@
       <c r="N11">
         <v>2.2759999999999998</v>
       </c>
+      <c r="S11" t="s">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <f t="shared" ref="T11:T12" si="3">(N4+T4)/2</f>
+        <v>0.550170767427973</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>0.66928925935471195</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>1.0848785263188101</v>
+      </c>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>1.2046362634630952</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2.5043218838240251</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3.8888902673877901</v>
+      </c>
       <c r="K12" t="s">
         <v>5</v>
       </c>
@@ -1045,10 +7768,26 @@
       </c>
       <c r="N12">
         <v>1.796</v>
+      </c>
+      <c r="S12" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="3"/>
+        <v>0.54859443118271356</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>0.64133277787370602</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>1.1240566555758051</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1056,8 +7795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48695607-6AE5-4958-BF00-39252E469FD1}">
   <dimension ref="B1:V12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:AD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1287,11 +8026,29 @@
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
       <c r="L8" t="s">
         <v>11</v>
       </c>
+      <c r="T8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
       <c r="K9" t="s">
         <v>0</v>
       </c>
@@ -1304,8 +8061,35 @@
       <c r="N9" t="s">
         <v>6</v>
       </c>
+      <c r="S9" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1</v>
+      </c>
+      <c r="U9" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <f>(C3+H3)/2</f>
+        <v>1.6198348444853452</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:E12" si="0">(D3+I3)/2</f>
+        <v>2.5043218838240251</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3.8869905162353495</v>
+      </c>
       <c r="K10" t="s">
         <v>3</v>
       </c>
@@ -1318,8 +8102,38 @@
       <c r="N10">
         <v>3.6359999999999899</v>
       </c>
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <f>(N3+T3)/2</f>
+        <v>0.53423540809609493</v>
+      </c>
+      <c r="U10">
+        <f t="shared" ref="U10:V12" si="1">(O3+U3)/2</f>
+        <v>0.67297752442543446</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>1.0706071523973848</v>
+      </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:C12" si="2">(C4+H4)/2</f>
+        <v>1.6188765306745552</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2.5043218838240251</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>3.8888902673877901</v>
+      </c>
       <c r="K11" t="s">
         <v>4</v>
       </c>
@@ -1332,8 +8146,38 @@
       <c r="N11">
         <v>1.748</v>
       </c>
+      <c r="S11" t="s">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <f t="shared" ref="T11:T12" si="3">(N4+T4)/2</f>
+        <v>0.53610833753711695</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>0.60094304706688151</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>1.1471144525387049</v>
+      </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>1.6189923586226649</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2.5043218838240251</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3.8888902673877901</v>
+      </c>
       <c r="K12" t="s">
         <v>5</v>
       </c>
@@ -1345,9 +8189,25 @@
       </c>
       <c r="N12">
         <v>1.26799999999999</v>
+      </c>
+      <c r="S12" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="3"/>
+        <v>0.53504808072377097</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>0.5886629772548585</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>1.2754194104676051</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/greedy_fitting/comparison/Comparison.xlsx
+++ b/greedy_fitting/comparison/Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hehon\Desktop\robodk\Motion-Primitive-Planning\greedy_fitting\comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AFD4C2-1564-4D78-95C3-C39EC9E0C747}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A25269-A567-4CB3-9274-CBBBC67783C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MoveL" sheetId="1" r:id="rId1"/>
@@ -1152,6 +1152,498 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Total Time </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(MoveL)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MoveL!$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>MoveL!$L$9:$N$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MoveL!$L$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>35.914999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9639999999999898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3879999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-50E0-47D8-A823-B24DACBA1123}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MoveL!$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>MoveL!$L$9:$N$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MoveL!$L$11:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>34.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5880000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-50E0-47D8-A823-B24DACBA1123}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MoveL!$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>MoveL!$L$9:$N$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MoveL!$L$12:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>33.936999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9959999999999898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-50E0-47D8-A823-B24DACBA1123}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1337315183"/>
+        <c:axId val="1337311439"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1337315183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1337311439"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1337311439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1337315183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
@@ -1604,7 +2096,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -2090,7 +2582,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -2576,7 +3068,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -3302,6 +3794,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5883,6 +6415,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6438,16 +7486,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6467,6 +7515,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D76326-7989-4EFA-A89C-79072C8CB2A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6894,8 +7978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S8" sqref="S8:V12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7195,7 +8279,7 @@
         <v>6.9639999999999898</v>
       </c>
       <c r="N10">
-        <v>3.57488107450799</v>
+        <v>6.3879999999999999</v>
       </c>
       <c r="S10" t="s">
         <v>3</v>
@@ -7239,7 +8323,7 @@
         <v>3.74</v>
       </c>
       <c r="N11">
-        <v>3.5697130711441898</v>
+        <v>2.5880000000000001</v>
       </c>
       <c r="S11" t="s">
         <v>4</v>
@@ -7283,7 +8367,7 @@
         <v>2.9959999999999898</v>
       </c>
       <c r="N12">
-        <v>3.5850283768173901</v>
+        <v>1.58</v>
       </c>
       <c r="S12" t="s">
         <v>5</v>
@@ -7795,7 +8879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48695607-6AE5-4958-BF00-39252E469FD1}">
   <dimension ref="B1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>

--- a/greedy_fitting/comparison/Comparison.xlsx
+++ b/greedy_fitting/comparison/Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hehon\Desktop\robodk\Motion-Primitive-Planning\greedy_fitting\comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A25269-A567-4CB3-9274-CBBBC67783C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2C17FF-935B-49D1-8343-D547D6B2FDE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MoveL" sheetId="1" r:id="rId1"/>
@@ -2616,6 +2616,491 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> (MoveC)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MoveC!$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>MoveC!$L$9:$N$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MoveC!$L$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>35.555999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8719999999999901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78D3-4D0A-A3E5-D5752AD1FB7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MoveC!$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>MoveC!$L$9:$N$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MoveC!$L$11:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>34.143999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2759999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-78D3-4D0A-A3E5-D5752AD1FB7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MoveC!$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>MoveC!$L$9:$N$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MoveC!$L$12:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3079999999999901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-78D3-4D0A-A3E5-D5752AD1FB7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1197661231"/>
+        <c:axId val="1197662479"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1197661231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197662479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1197662479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197661231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
@@ -3068,7 +3553,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -3468,6 +3953,492 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="498202655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> (MoveL+MoveC)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MoveL+MoveC'!$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MoveL+MoveC'!$L$9:$N$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MoveL+MoveC'!$L$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>35.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6359999999999899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1830-402F-BD92-850184B46811}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MoveL+MoveC'!$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MoveL+MoveC'!$L$9:$N$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MoveL+MoveC'!$L$11:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>34.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1830-402F-BD92-850184B46811}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MoveL+MoveC'!$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MoveL+MoveC'!$L$9:$N$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MoveL+MoveC'!$L$12:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>33.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9719999999999902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.26799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1830-402F-BD92-850184B46811}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1337324335"/>
+        <c:axId val="1337326415"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1337324335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1337326415"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1337326415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1337324335"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3834,6 +4805,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6931,6 +7982,1038 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7563,16 +9646,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7633,6 +9716,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>716280</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93A059A9-479D-4073-9E66-ECB05169EBC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7642,12 +9761,12 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -7705,6 +9824,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D65D7C0-F6B4-4BC2-A660-48B4B9609845}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7978,7 +10133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -8396,7 +10551,7 @@
   <dimension ref="B1:AD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S9" sqref="S9:V12"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8879,8 +11034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48695607-6AE5-4958-BF00-39252E469FD1}">
   <dimension ref="B1:V12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/greedy_fitting/comparison/Comparison.xlsx
+++ b/greedy_fitting/comparison/Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hehon\Desktop\robodk\Motion-Primitive-Planning\greedy_fitting\comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2C17FF-935B-49D1-8343-D547D6B2FDE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58DD218-17F5-4571-800E-BAA067EDDE87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MoveL" sheetId="1" r:id="rId1"/>
@@ -277,13 +277,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.2568881818498301</c:v>
+                  <c:v>1.24508132331666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9546606431835349</c:v>
+                  <c:v>2.9598103678123651</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5074540260043747</c:v>
+                  <c:v>3.517502105228965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -345,13 +345,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.15276187099895</c:v>
+                  <c:v>1.1578167746238299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9546606431835349</c:v>
+                  <c:v>2.9598103678123651</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.502368632938035</c:v>
+                  <c:v>3.5124153827749152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -413,13 +413,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.14594671401291</c:v>
+                  <c:v>1.1578167746238299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9546606431835349</c:v>
+                  <c:v>2.9598103678123651</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5174695163268348</c:v>
+                  <c:v>3.5226172981104353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -762,13 +762,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.4401104198219225</c:v>
+                  <c:v>0.43834337626342001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83997115730885041</c:v>
+                  <c:v>0.7972603889620925</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0129683649805901</c:v>
+                  <c:v>1.0185155912722301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -830,13 +830,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.42440301325650553</c:v>
+                  <c:v>0.4277635492708235</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61140800830387554</c:v>
+                  <c:v>0.58744854800205448</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84194244266533402</c:v>
+                  <c:v>0.94315824570218953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,13 +898,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.40361020325938746</c:v>
+                  <c:v>0.40756375756833152</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.493035915944248</c:v>
+                  <c:v>0.48439473777300401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82022515381962191</c:v>
+                  <c:v>0.90614441206756147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1254,13 +1254,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>35.914999999999999</c:v>
+                  <c:v>35.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9639999999999898</c:v>
+                  <c:v>6.484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3879999999999999</c:v>
+                  <c:v>5.7759999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1322,13 +1322,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>34.18</c:v>
+                  <c:v>34.167999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.74</c:v>
+                  <c:v>3.6680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5880000000000001</c:v>
+                  <c:v>2.492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1390,13 +1390,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>33.936999999999998</c:v>
+                  <c:v>33.903999999999897</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9959999999999898</c:v>
+                  <c:v>2.948</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.58</c:v>
+                  <c:v>1.484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3197,13 +3197,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.6198348444853452</c:v>
+                  <c:v>1.0876388284631799</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5043218838240251</c:v>
+                  <c:v>2.5029163987249552</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8869905162353495</c:v>
+                  <c:v>3.8875641134117251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3265,13 +3265,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.6188765306745552</c:v>
+                  <c:v>1.0717849489849649</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5043218838240251</c:v>
+                  <c:v>2.5029163987249552</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8888902673877901</c:v>
+                  <c:v>3.8875641134117251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3333,13 +3333,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.6189923586226649</c:v>
+                  <c:v>1.0627489031898294</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5043218838240251</c:v>
+                  <c:v>2.5029163987249552</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8888902673877901</c:v>
+                  <c:v>3.8875641134117251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3683,13 +3683,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.53423540809609493</c:v>
+                  <c:v>0.56388562466165648</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67297752442543446</c:v>
+                  <c:v>0.71075695444176845</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0706071523973848</c:v>
+                  <c:v>1.053086016844025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3751,13 +3751,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.53610833753711695</c:v>
+                  <c:v>0.56654709562495598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60094304706688151</c:v>
+                  <c:v>0.64255644208909257</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1471144525387049</c:v>
+                  <c:v>1.132140557909155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3819,13 +3819,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.53504808072377097</c:v>
+                  <c:v>0.56493817789016099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5886629772548585</c:v>
+                  <c:v>0.62755358289843255</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2754194104676051</c:v>
+                  <c:v>1.2851208695600649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4169,13 +4169,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>35.14</c:v>
+                  <c:v>35.175999999999902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9359999999999999</c:v>
+                  <c:v>5.1040000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6359999999999899</c:v>
+                  <c:v>3.9079999999999901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4237,7 +4237,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>34.159999999999997</c:v>
+                  <c:v>34.143999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.3079999999999998</c:v>
@@ -4305,13 +4305,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>33.92</c:v>
+                  <c:v>33.903999999999897</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9719999999999902</c:v>
+                  <c:v>2.948</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.26799999999999</c:v>
+                  <c:v>1.21999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9760,15 +9760,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10134,7 +10134,7 @@
   <dimension ref="B1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10214,49 +10214,49 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1.2534644642886601</v>
+        <v>1.24180296417095</v>
       </c>
       <c r="D3">
-        <v>2.90536269162746</v>
+        <v>2.91141623357607</v>
       </c>
       <c r="E3">
-        <v>3.4400269775007599</v>
+        <v>3.4499038623433802</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3">
-        <v>1.2603118994110001</v>
+        <v>1.2483596824623699</v>
       </c>
       <c r="I3">
-        <v>3.0039585947396099</v>
+        <v>3.0082045020486601</v>
       </c>
       <c r="J3">
-        <v>3.57488107450799</v>
+        <v>3.5851003481145498</v>
       </c>
       <c r="M3" t="s">
         <v>3</v>
       </c>
       <c r="N3">
-        <v>0.44142324020380103</v>
+        <v>0.44254615464008901</v>
       </c>
       <c r="O3">
-        <v>0.83403248860989498</v>
+        <v>0.79488656221124598</v>
       </c>
       <c r="P3">
-        <v>1.0033919329610801</v>
+        <v>1.01173290531773</v>
       </c>
       <c r="S3" t="s">
         <v>3</v>
       </c>
       <c r="T3">
-        <v>0.43879759944004398</v>
+        <v>0.43414059788675102</v>
       </c>
       <c r="U3">
-        <v>0.84590982600780595</v>
+        <v>0.79963421571293902</v>
       </c>
       <c r="V3">
-        <v>1.0225447970001</v>
+        <v>1.0252982772267301</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
@@ -10264,49 +10264,49 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1.1464549543318401</v>
+        <v>1.1519305613394</v>
       </c>
       <c r="D4">
-        <v>2.90536269162746</v>
+        <v>2.91141623357607</v>
       </c>
       <c r="E4">
-        <v>3.4350241947318798</v>
+        <v>3.4449543644820602</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
       <c r="H4">
-        <v>1.1590687876660599</v>
+        <v>1.1637029879082601</v>
       </c>
       <c r="I4">
-        <v>3.0039585947396099</v>
+        <v>3.0082045020486601</v>
       </c>
       <c r="J4">
-        <v>3.5697130711441898</v>
+        <v>3.5798764010677702</v>
       </c>
       <c r="M4" t="s">
         <v>4</v>
       </c>
       <c r="N4">
-        <v>0.42589679796332902</v>
+        <v>0.43212892167665801</v>
       </c>
       <c r="O4">
-        <v>0.60332657188360495</v>
+        <v>0.58818449723752397</v>
       </c>
       <c r="P4">
-        <v>0.83485879288144504</v>
+        <v>0.93865432394388704</v>
       </c>
       <c r="S4" t="s">
         <v>4</v>
       </c>
       <c r="T4">
-        <v>0.42290922854968199</v>
+        <v>0.42339817686498898</v>
       </c>
       <c r="U4">
-        <v>0.61948944472414602</v>
+        <v>0.58671259876658499</v>
       </c>
       <c r="V4">
-        <v>0.849026092449223</v>
+        <v>0.94766216746049203</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
@@ -10314,49 +10314,49 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1.1395002712342099</v>
+        <v>1.1519305613394</v>
       </c>
       <c r="D5">
-        <v>2.90536269162746</v>
+        <v>2.91141623357607</v>
       </c>
       <c r="E5">
-        <v>3.44991065583628</v>
+        <v>3.4549256521113301</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
       </c>
       <c r="H5">
-        <v>1.1523931567916099</v>
+        <v>1.1637029879082601</v>
       </c>
       <c r="I5">
-        <v>3.0039585947396099</v>
+        <v>3.0082045020486601</v>
       </c>
       <c r="J5">
-        <v>3.5850283768173901</v>
+        <v>3.5903089441095402</v>
       </c>
       <c r="M5" t="s">
         <v>5</v>
       </c>
       <c r="N5">
-        <v>0.40474532043538097</v>
+        <v>0.41161308448781903</v>
       </c>
       <c r="O5">
-        <v>0.48890075820611001</v>
+        <v>0.49248225048393102</v>
       </c>
       <c r="P5">
-        <v>0.80959561834952698</v>
+        <v>0.90448471657553997</v>
       </c>
       <c r="S5" t="s">
         <v>5</v>
       </c>
       <c r="T5">
-        <v>0.402475086083394</v>
+        <v>0.40351443064884401</v>
       </c>
       <c r="U5">
-        <v>0.497171073682386</v>
+        <v>0.47630722506207701</v>
       </c>
       <c r="V5">
-        <v>0.83085468928971695</v>
+        <v>0.90780410755958296</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
@@ -10414,42 +10414,42 @@
       </c>
       <c r="C10">
         <f>(C3+H3)/2</f>
-        <v>1.2568881818498301</v>
+        <v>1.24508132331666</v>
       </c>
       <c r="D10">
         <f t="shared" ref="D10:E10" si="0">(D3+I3)/2</f>
-        <v>2.9546606431835349</v>
+        <v>2.9598103678123651</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>3.5074540260043747</v>
+        <v>3.517502105228965</v>
       </c>
       <c r="K10" t="s">
         <v>3</v>
       </c>
       <c r="L10">
-        <v>35.914999999999999</v>
+        <v>35.72</v>
       </c>
       <c r="M10">
-        <v>6.9639999999999898</v>
+        <v>6.484</v>
       </c>
       <c r="N10">
-        <v>6.3879999999999999</v>
+        <v>5.7759999999999998</v>
       </c>
       <c r="S10" t="s">
         <v>3</v>
       </c>
       <c r="T10">
         <f>(N3+T3)/2</f>
-        <v>0.4401104198219225</v>
+        <v>0.43834337626342001</v>
       </c>
       <c r="U10">
         <f t="shared" ref="U10:V10" si="1">(O3+U3)/2</f>
-        <v>0.83997115730885041</v>
+        <v>0.7972603889620925</v>
       </c>
       <c r="V10">
         <f t="shared" si="1"/>
-        <v>1.0129683649805901</v>
+        <v>1.0185155912722301</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
@@ -10458,42 +10458,42 @@
       </c>
       <c r="C11">
         <f t="shared" ref="C11:C12" si="2">(C4+H4)/2</f>
-        <v>1.15276187099895</v>
+        <v>1.1578167746238299</v>
       </c>
       <c r="D11">
         <f t="shared" ref="D11:D12" si="3">(D4+I4)/2</f>
-        <v>2.9546606431835349</v>
+        <v>2.9598103678123651</v>
       </c>
       <c r="E11">
         <f t="shared" ref="E11:E12" si="4">(E4+J4)/2</f>
-        <v>3.502368632938035</v>
+        <v>3.5124153827749152</v>
       </c>
       <c r="K11" t="s">
         <v>4</v>
       </c>
       <c r="L11">
-        <v>34.18</v>
+        <v>34.167999999999999</v>
       </c>
       <c r="M11">
-        <v>3.74</v>
+        <v>3.6680000000000001</v>
       </c>
       <c r="N11">
-        <v>2.5880000000000001</v>
+        <v>2.492</v>
       </c>
       <c r="S11" t="s">
         <v>4</v>
       </c>
       <c r="T11">
         <f t="shared" ref="T11:T12" si="5">(N4+T4)/2</f>
-        <v>0.42440301325650553</v>
+        <v>0.4277635492708235</v>
       </c>
       <c r="U11">
         <f t="shared" ref="U11:U12" si="6">(O4+U4)/2</f>
-        <v>0.61140800830387554</v>
+        <v>0.58744854800205448</v>
       </c>
       <c r="V11">
         <f t="shared" ref="V11:V12" si="7">(P4+V4)/2</f>
-        <v>0.84194244266533402</v>
+        <v>0.94315824570218953</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
@@ -10502,42 +10502,42 @@
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
-        <v>1.14594671401291</v>
+        <v>1.1578167746238299</v>
       </c>
       <c r="D12">
         <f t="shared" si="3"/>
-        <v>2.9546606431835349</v>
+        <v>2.9598103678123651</v>
       </c>
       <c r="E12">
         <f t="shared" si="4"/>
-        <v>3.5174695163268348</v>
+        <v>3.5226172981104353</v>
       </c>
       <c r="K12" t="s">
         <v>5</v>
       </c>
       <c r="L12">
-        <v>33.936999999999998</v>
+        <v>33.903999999999897</v>
       </c>
       <c r="M12">
-        <v>2.9959999999999898</v>
+        <v>2.948</v>
       </c>
       <c r="N12">
-        <v>1.58</v>
+        <v>1.484</v>
       </c>
       <c r="S12" t="s">
         <v>5</v>
       </c>
       <c r="T12">
         <f t="shared" si="5"/>
-        <v>0.40361020325938746</v>
+        <v>0.40756375756833152</v>
       </c>
       <c r="U12">
         <f t="shared" si="6"/>
-        <v>0.493035915944248</v>
+        <v>0.48439473777300401</v>
       </c>
       <c r="V12">
         <f t="shared" si="7"/>
-        <v>0.82022515381962191</v>
+        <v>0.90614441206756147</v>
       </c>
     </row>
   </sheetData>
@@ -11035,7 +11035,7 @@
   <dimension ref="B1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:N12"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11119,49 +11119,49 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1.7129988952397901</v>
+        <v>1.0486534930014499</v>
       </c>
       <c r="D3">
-        <v>2.4456162456956201</v>
+        <v>2.4441931732073598</v>
       </c>
       <c r="E3">
-        <v>3.7666703585535699</v>
+        <v>3.7673401253095902</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3">
-        <v>1.5266707937309001</v>
+        <v>1.1266241639249099</v>
       </c>
       <c r="I3">
-        <v>2.5630275219524301</v>
+        <v>2.5616396242425501</v>
       </c>
       <c r="J3">
-        <v>4.0073106739171296</v>
+        <v>4.0077881015138601</v>
       </c>
       <c r="M3" t="s">
         <v>3</v>
       </c>
       <c r="N3">
-        <v>0.50446307610454399</v>
+        <v>0.54162891676578395</v>
       </c>
       <c r="O3">
-        <v>0.66270616516690095</v>
+        <v>0.70304424726052595</v>
       </c>
       <c r="P3">
-        <v>1.0688908961977399</v>
+        <v>1.0478261173897201</v>
       </c>
       <c r="S3" t="s">
         <v>3</v>
       </c>
       <c r="T3">
-        <v>0.56400774008764598</v>
+        <v>0.58614233255752901</v>
       </c>
       <c r="U3">
-        <v>0.68324888368396797</v>
+        <v>0.71846966162301096</v>
       </c>
       <c r="V3">
-        <v>1.0723234085970299</v>
+        <v>1.05834591629833</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
@@ -11169,49 +11169,49 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1.7116602311290601</v>
+        <v>1.01711218213026</v>
       </c>
       <c r="D4">
-        <v>2.4456162456956201</v>
+        <v>2.4441931732073598</v>
       </c>
       <c r="E4">
-        <v>3.76855626821165</v>
+        <v>3.7673401253095902</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
       <c r="H4">
-        <v>1.52609283022005</v>
+        <v>1.12645771583967</v>
       </c>
       <c r="I4">
-        <v>2.5630275219524301</v>
+        <v>2.5616396242425501</v>
       </c>
       <c r="J4">
-        <v>4.0092242665639297</v>
+        <v>4.0077881015138601</v>
       </c>
       <c r="M4" t="s">
         <v>4</v>
       </c>
       <c r="N4">
-        <v>0.50544944637439504</v>
+        <v>0.54366650376644499</v>
       </c>
       <c r="O4">
-        <v>0.61385200481944002</v>
+        <v>0.650064572553263</v>
       </c>
       <c r="P4">
-        <v>1.1641147563132701</v>
+        <v>1.1449145153126901</v>
       </c>
       <c r="S4" t="s">
         <v>4</v>
       </c>
       <c r="T4">
-        <v>0.56676722869983898</v>
+        <v>0.58942768748346697</v>
       </c>
       <c r="U4">
-        <v>0.58803408931432299</v>
+        <v>0.63504831162492204</v>
       </c>
       <c r="V4">
-        <v>1.13011414876414</v>
+        <v>1.11936660050562</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
@@ -11219,49 +11219,49 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1.7117246075913599</v>
+        <v>0.99845245184723896</v>
       </c>
       <c r="D5">
-        <v>2.4456162456956201</v>
+        <v>2.4441931732073598</v>
       </c>
       <c r="E5">
-        <v>3.76855626821165</v>
+        <v>3.7673401253095902</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
       </c>
       <c r="H5">
-        <v>1.5262601096539701</v>
+        <v>1.1270453545324199</v>
       </c>
       <c r="I5">
-        <v>2.5630275219524301</v>
+        <v>2.5616396242425501</v>
       </c>
       <c r="J5">
-        <v>4.0092242665639297</v>
+        <v>4.0077881015138601</v>
       </c>
       <c r="M5" t="s">
         <v>5</v>
       </c>
       <c r="N5">
-        <v>0.50407861523256803</v>
+        <v>0.54192788594204999</v>
       </c>
       <c r="O5">
-        <v>0.61269625399137595</v>
+        <v>0.64917238667215205</v>
       </c>
       <c r="P5">
-        <v>1.2879801084517299</v>
+        <v>1.2999148170254899</v>
       </c>
       <c r="S5" t="s">
         <v>5</v>
       </c>
       <c r="T5">
-        <v>0.56601754621497402</v>
+        <v>0.58794846983827198</v>
       </c>
       <c r="U5">
-        <v>0.56462970051834105</v>
+        <v>0.60593477912471305</v>
       </c>
       <c r="V5">
-        <v>1.26285871248348</v>
+        <v>1.27032692209464</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
@@ -11319,42 +11319,42 @@
       </c>
       <c r="C10">
         <f>(C3+H3)/2</f>
-        <v>1.6198348444853452</v>
+        <v>1.0876388284631799</v>
       </c>
       <c r="D10">
         <f t="shared" ref="D10:E12" si="0">(D3+I3)/2</f>
-        <v>2.5043218838240251</v>
+        <v>2.5029163987249552</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>3.8869905162353495</v>
+        <v>3.8875641134117251</v>
       </c>
       <c r="K10" t="s">
         <v>3</v>
       </c>
       <c r="L10">
-        <v>35.14</v>
+        <v>35.175999999999902</v>
       </c>
       <c r="M10">
-        <v>4.9359999999999999</v>
+        <v>5.1040000000000001</v>
       </c>
       <c r="N10">
-        <v>3.6359999999999899</v>
+        <v>3.9079999999999901</v>
       </c>
       <c r="S10" t="s">
         <v>3</v>
       </c>
       <c r="T10">
         <f>(N3+T3)/2</f>
-        <v>0.53423540809609493</v>
+        <v>0.56388562466165648</v>
       </c>
       <c r="U10">
         <f t="shared" ref="U10:V12" si="1">(O3+U3)/2</f>
-        <v>0.67297752442543446</v>
+        <v>0.71075695444176845</v>
       </c>
       <c r="V10">
         <f t="shared" si="1"/>
-        <v>1.0706071523973848</v>
+        <v>1.053086016844025</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
@@ -11363,21 +11363,21 @@
       </c>
       <c r="C11">
         <f t="shared" ref="C11:C12" si="2">(C4+H4)/2</f>
-        <v>1.6188765306745552</v>
+        <v>1.0717849489849649</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>2.5043218838240251</v>
+        <v>2.5029163987249552</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>3.8888902673877901</v>
+        <v>3.8875641134117251</v>
       </c>
       <c r="K11" t="s">
         <v>4</v>
       </c>
       <c r="L11">
-        <v>34.159999999999997</v>
+        <v>34.143999999999998</v>
       </c>
       <c r="M11">
         <v>3.3079999999999998</v>
@@ -11390,15 +11390,15 @@
       </c>
       <c r="T11">
         <f t="shared" ref="T11:T12" si="3">(N4+T4)/2</f>
-        <v>0.53610833753711695</v>
+        <v>0.56654709562495598</v>
       </c>
       <c r="U11">
         <f t="shared" si="1"/>
-        <v>0.60094304706688151</v>
+        <v>0.64255644208909257</v>
       </c>
       <c r="V11">
         <f t="shared" si="1"/>
-        <v>1.1471144525387049</v>
+        <v>1.132140557909155</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
@@ -11407,42 +11407,42 @@
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
-        <v>1.6189923586226649</v>
+        <v>1.0627489031898294</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>2.5043218838240251</v>
+        <v>2.5029163987249552</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>3.8888902673877901</v>
+        <v>3.8875641134117251</v>
       </c>
       <c r="K12" t="s">
         <v>5</v>
       </c>
       <c r="L12">
-        <v>33.92</v>
+        <v>33.903999999999897</v>
       </c>
       <c r="M12">
-        <v>2.9719999999999902</v>
+        <v>2.948</v>
       </c>
       <c r="N12">
-        <v>1.26799999999999</v>
+        <v>1.21999999999999</v>
       </c>
       <c r="S12" t="s">
         <v>5</v>
       </c>
       <c r="T12">
         <f t="shared" si="3"/>
-        <v>0.53504808072377097</v>
+        <v>0.56493817789016099</v>
       </c>
       <c r="U12">
         <f t="shared" si="1"/>
-        <v>0.5886629772548585</v>
+        <v>0.62755358289843255</v>
       </c>
       <c r="V12">
         <f t="shared" si="1"/>
-        <v>1.2754194104676051</v>
+        <v>1.2851208695600649</v>
       </c>
     </row>
   </sheetData>

--- a/greedy_fitting/comparison/Comparison.xlsx
+++ b/greedy_fitting/comparison/Comparison.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hehon\Desktop\robodk\Motion-Primitive-Planning\greedy_fitting\comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58DD218-17F5-4571-800E-BAA067EDDE87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D257ADBE-CE9E-45DC-9688-58E85465AE89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MoveL" sheetId="1" r:id="rId1"/>
     <sheet name="MoveC" sheetId="2" r:id="rId2"/>
     <sheet name="MoveL+MoveC" sheetId="3" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="19">
   <si>
     <t>Speed/Blending</t>
   </si>
@@ -11034,8 +11035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48695607-6AE5-4958-BF00-39252E469FD1}">
   <dimension ref="B1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11449,4 +11450,377 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA73C6D-3945-4953-8713-B30546E74F33}">
+  <dimension ref="B1:V12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2.3032070303871199</v>
+      </c>
+      <c r="E3">
+        <v>3.7018641914513899</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>2.4162440133913599</v>
+      </c>
+      <c r="J3">
+        <v>3.9284996195778499</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>0.52774700224902904</v>
+      </c>
+      <c r="P3">
+        <v>0.82484687169961002</v>
+      </c>
+      <c r="S3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <v>0.53639758183733899</v>
+      </c>
+      <c r="V3">
+        <v>0.83786773374072698</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2.3032070303871199</v>
+      </c>
+      <c r="E4">
+        <v>3.7018641914513899</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>2.4162440133913599</v>
+      </c>
+      <c r="J4">
+        <v>3.9284996195778499</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>0.42667947752861402</v>
+      </c>
+      <c r="P4">
+        <v>0.93736490447766896</v>
+      </c>
+      <c r="S4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <v>0.42361075304279699</v>
+      </c>
+      <c r="V4">
+        <v>0.93327018658476402</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>2.3032070303871199</v>
+      </c>
+      <c r="E5">
+        <v>3.7018641914513899</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>2.4162440133913599</v>
+      </c>
+      <c r="J5">
+        <v>3.9284996195778499</v>
+      </c>
+      <c r="M5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>0.39490859269150902</v>
+      </c>
+      <c r="P5">
+        <v>1.18154700947276</v>
+      </c>
+      <c r="S5" t="s">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>0.38104860183552802</v>
+      </c>
+      <c r="V5">
+        <v>1.17138825635308</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1</v>
+      </c>
+      <c r="U9" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <f>(C3+H3)/2</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:E12" si="0">(D3+I3)/2</f>
+        <v>2.3597255218892399</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3.8151819055146197</v>
+      </c>
+      <c r="K10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>6.1</v>
+      </c>
+      <c r="N10">
+        <v>5.2159999999999904</v>
+      </c>
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <f>(N3+T3)/2</f>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" ref="U10:V12" si="1">(O3+U3)/2</f>
+        <v>0.53207229204318396</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>0.8313573027201685</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:C12" si="2">(C4+H4)/2</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2.3597255218892399</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>3.8151819055146197</v>
+      </c>
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>3.4279999999999999</v>
+      </c>
+      <c r="N11">
+        <v>2.2759999999999998</v>
+      </c>
+      <c r="S11" t="s">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <f t="shared" ref="T11:T12" si="3">(N4+T4)/2</f>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>0.42514511528570553</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>0.93531754553121649</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2.3597255218892399</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3.8151819055146197</v>
+      </c>
+      <c r="K12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>2.9959999999999898</v>
+      </c>
+      <c r="N12">
+        <v>1.3640000000000001</v>
+      </c>
+      <c r="S12" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>0.38797859726351852</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>1.17646763291292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/greedy_fitting/comparison/Comparison.xlsx
+++ b/greedy_fitting/comparison/Comparison.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hehon\Desktop\robodk\Motion-Primitive-Planning\greedy_fitting\comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D257ADBE-CE9E-45DC-9688-58E85465AE89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A600BF-AAB6-4D66-BE1E-B7686F92FFCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38772" yWindow="2280" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MoveL" sheetId="1" r:id="rId1"/>
     <sheet name="MoveC" sheetId="2" r:id="rId2"/>
-    <sheet name="MoveL+MoveC" sheetId="3" r:id="rId3"/>
-    <sheet name="工作表1" sheetId="4" r:id="rId4"/>
+    <sheet name="MoveL+MoveC(1)" sheetId="3" r:id="rId3"/>
+    <sheet name="MoveL+MoveC(0.5)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3153,7 +3153,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MoveL+MoveC'!$B$10</c:f>
+              <c:f>'MoveL+MoveC(1)'!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3176,7 +3176,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'MoveL+MoveC'!$C$9:$E$9</c:f>
+              <c:f>'MoveL+MoveC(1)'!$C$9:$E$9</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3193,7 +3193,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'MoveL+MoveC'!$C$10:$E$10</c:f>
+              <c:f>'MoveL+MoveC(1)'!$C$10:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3201,7 +3201,7 @@
                   <c:v>1.0876388284631799</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5029163987249552</c:v>
+                  <c:v>2.5048219921148354</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.8875641134117251</c:v>
@@ -3221,7 +3221,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MoveL+MoveC'!$B$11</c:f>
+              <c:f>'MoveL+MoveC(1)'!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3244,7 +3244,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'MoveL+MoveC'!$C$9:$E$9</c:f>
+              <c:f>'MoveL+MoveC(1)'!$C$9:$E$9</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3261,7 +3261,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'MoveL+MoveC'!$C$11:$E$11</c:f>
+              <c:f>'MoveL+MoveC(1)'!$C$11:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3269,7 +3269,7 @@
                   <c:v>1.0717849489849649</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5029163987249552</c:v>
+                  <c:v>2.5048219921148354</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.8875641134117251</c:v>
@@ -3289,7 +3289,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MoveL+MoveC'!$B$12</c:f>
+              <c:f>'MoveL+MoveC(1)'!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3312,7 +3312,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'MoveL+MoveC'!$C$9:$E$9</c:f>
+              <c:f>'MoveL+MoveC(1)'!$C$9:$E$9</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3329,7 +3329,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'MoveL+MoveC'!$C$12:$E$12</c:f>
+              <c:f>'MoveL+MoveC(1)'!$C$12:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3337,7 +3337,7 @@
                   <c:v>1.0627489031898294</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5029163987249552</c:v>
+                  <c:v>2.5048219921148354</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.8875641134117251</c:v>
@@ -3639,7 +3639,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MoveL+MoveC'!$S$10</c:f>
+              <c:f>'MoveL+MoveC(1)'!$S$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3662,7 +3662,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'MoveL+MoveC'!$T$9:$V$9</c:f>
+              <c:f>'MoveL+MoveC(1)'!$T$9:$V$9</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3679,18 +3679,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'MoveL+MoveC'!$T$10:$V$10</c:f>
+              <c:f>'MoveL+MoveC(1)'!$T$10:$V$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.56388562466165648</c:v>
+                  <c:v>0.56290616483955147</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71075695444176845</c:v>
+                  <c:v>0.70325863832747593</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.053086016844025</c:v>
+                  <c:v>1.0372054846919352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3707,7 +3707,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MoveL+MoveC'!$S$11</c:f>
+              <c:f>'MoveL+MoveC(1)'!$S$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3730,7 +3730,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'MoveL+MoveC'!$T$9:$V$9</c:f>
+              <c:f>'MoveL+MoveC(1)'!$T$9:$V$9</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3747,18 +3747,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'MoveL+MoveC'!$T$11:$V$11</c:f>
+              <c:f>'MoveL+MoveC(1)'!$T$11:$V$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.56654709562495598</c:v>
+                  <c:v>0.55915499339983543</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64255644208909257</c:v>
+                  <c:v>0.63356278756364803</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.132140557909155</c:v>
+                  <c:v>1.0490689324068851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3775,7 +3775,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MoveL+MoveC'!$S$12</c:f>
+              <c:f>'MoveL+MoveC(1)'!$S$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3798,7 +3798,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'MoveL+MoveC'!$T$9:$V$9</c:f>
+              <c:f>'MoveL+MoveC(1)'!$T$9:$V$9</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3815,18 +3815,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'MoveL+MoveC'!$T$12:$V$12</c:f>
+              <c:f>'MoveL+MoveC(1)'!$T$12:$V$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.56493817789016099</c:v>
+                  <c:v>0.55641165695452943</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62755358289843255</c:v>
+                  <c:v>0.616044825049615</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2851208695600649</c:v>
+                  <c:v>1.1206196963157251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4125,7 +4125,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MoveL+MoveC'!$K$10</c:f>
+              <c:f>'MoveL+MoveC(1)'!$K$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4148,7 +4148,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'MoveL+MoveC'!$L$9:$N$9</c:f>
+              <c:f>'MoveL+MoveC(1)'!$L$9:$N$9</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4165,18 +4165,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'MoveL+MoveC'!$L$10:$N$10</c:f>
+              <c:f>'MoveL+MoveC(1)'!$L$10:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>35.175999999999902</c:v>
+                  <c:v>35.251999999999903</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1040000000000001</c:v>
+                  <c:v>5.1679999999999904</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9079999999999901</c:v>
+                  <c:v>3.976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4193,7 +4193,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MoveL+MoveC'!$K$11</c:f>
+              <c:f>'MoveL+MoveC(1)'!$K$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4216,7 +4216,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'MoveL+MoveC'!$L$9:$N$9</c:f>
+              <c:f>'MoveL+MoveC(1)'!$L$9:$N$9</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4233,18 +4233,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'MoveL+MoveC'!$L$11:$N$11</c:f>
+              <c:f>'MoveL+MoveC(1)'!$L$11:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>34.143999999999998</c:v>
+                  <c:v>34.811999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3079999999999998</c:v>
+                  <c:v>4.0519999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.748</c:v>
+                  <c:v>2.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4261,7 +4261,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MoveL+MoveC'!$K$12</c:f>
+              <c:f>'MoveL+MoveC(1)'!$K$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4284,7 +4284,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'MoveL+MoveC'!$L$9:$N$9</c:f>
+              <c:f>'MoveL+MoveC(1)'!$L$9:$N$9</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4301,18 +4301,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'MoveL+MoveC'!$L$12:$N$12</c:f>
+              <c:f>'MoveL+MoveC(1)'!$L$12:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>33.903999999999897</c:v>
+                  <c:v>34.811999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.948</c:v>
+                  <c:v>3.6760000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.21999999999999</c:v>
+                  <c:v>2.19599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11035,8 +11035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48695607-6AE5-4958-BF00-39252E469FD1}">
   <dimension ref="B1:V12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:V12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11123,7 +11123,7 @@
         <v>1.0486534930014499</v>
       </c>
       <c r="D3">
-        <v>2.4441931732073598</v>
+        <v>2.4461389521383801</v>
       </c>
       <c r="E3">
         <v>3.7673401253095902</v>
@@ -11135,7 +11135,7 @@
         <v>1.1266241639249099</v>
       </c>
       <c r="I3">
-        <v>2.5616396242425501</v>
+        <v>2.5635050320912902</v>
       </c>
       <c r="J3">
         <v>4.0077881015138601</v>
@@ -11144,25 +11144,25 @@
         <v>3</v>
       </c>
       <c r="N3">
-        <v>0.54162891676578395</v>
+        <v>0.54069927892216696</v>
       </c>
       <c r="O3">
-        <v>0.70304424726052595</v>
+        <v>0.69566672249594896</v>
       </c>
       <c r="P3">
-        <v>1.0478261173897201</v>
+        <v>1.0320724757842901</v>
       </c>
       <c r="S3" t="s">
         <v>3</v>
       </c>
       <c r="T3">
-        <v>0.58614233255752901</v>
+        <v>0.58511305075693598</v>
       </c>
       <c r="U3">
-        <v>0.71846966162301096</v>
+        <v>0.710850554159003</v>
       </c>
       <c r="V3">
-        <v>1.05834591629833</v>
+        <v>1.0423384935995801</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
@@ -11173,7 +11173,7 @@
         <v>1.01711218213026</v>
       </c>
       <c r="D4">
-        <v>2.4441931732073598</v>
+        <v>2.4461389521383801</v>
       </c>
       <c r="E4">
         <v>3.7673401253095902</v>
@@ -11185,7 +11185,7 @@
         <v>1.12645771583967</v>
       </c>
       <c r="I4">
-        <v>2.5616396242425501</v>
+        <v>2.5635050320912902</v>
       </c>
       <c r="J4">
         <v>4.0077881015138601</v>
@@ -11194,25 +11194,25 @@
         <v>4</v>
       </c>
       <c r="N4">
-        <v>0.54366650376644499</v>
+        <v>0.53670792390024502</v>
       </c>
       <c r="O4">
-        <v>0.650064572553263</v>
+        <v>0.62528454487277396</v>
       </c>
       <c r="P4">
-        <v>1.1449145153126901</v>
+        <v>1.04437331378021</v>
       </c>
       <c r="S4" t="s">
         <v>4</v>
       </c>
       <c r="T4">
-        <v>0.58942768748346697</v>
+        <v>0.58160206289942595</v>
       </c>
       <c r="U4">
-        <v>0.63504831162492204</v>
+        <v>0.64184103025452199</v>
       </c>
       <c r="V4">
-        <v>1.11936660050562</v>
+        <v>1.05376455103356</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
@@ -11223,7 +11223,7 @@
         <v>0.99845245184723896</v>
       </c>
       <c r="D5">
-        <v>2.4441931732073598</v>
+        <v>2.4461389521383801</v>
       </c>
       <c r="E5">
         <v>3.7673401253095902</v>
@@ -11235,7 +11235,7 @@
         <v>1.1270453545324199</v>
       </c>
       <c r="I5">
-        <v>2.5616396242425501</v>
+        <v>2.5635050320912902</v>
       </c>
       <c r="J5">
         <v>4.0077881015138601</v>
@@ -11244,25 +11244,25 @@
         <v>5</v>
       </c>
       <c r="N5">
-        <v>0.54192788594204999</v>
+        <v>0.53398360980065496</v>
       </c>
       <c r="O5">
-        <v>0.64917238667215205</v>
+        <v>0.61543548252278801</v>
       </c>
       <c r="P5">
-        <v>1.2999148170254899</v>
+        <v>1.1304732308563199</v>
       </c>
       <c r="S5" t="s">
         <v>5</v>
       </c>
       <c r="T5">
-        <v>0.58794846983827198</v>
+        <v>0.57883970410840402</v>
       </c>
       <c r="U5">
-        <v>0.60593477912471305</v>
+        <v>0.61665416757644198</v>
       </c>
       <c r="V5">
-        <v>1.27032692209464</v>
+        <v>1.1107661617751301</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
@@ -11324,7 +11324,7 @@
       </c>
       <c r="D10">
         <f t="shared" ref="D10:E12" si="0">(D3+I3)/2</f>
-        <v>2.5029163987249552</v>
+        <v>2.5048219921148354</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
@@ -11334,28 +11334,28 @@
         <v>3</v>
       </c>
       <c r="L10">
-        <v>35.175999999999902</v>
+        <v>35.251999999999903</v>
       </c>
       <c r="M10">
-        <v>5.1040000000000001</v>
+        <v>5.1679999999999904</v>
       </c>
       <c r="N10">
-        <v>3.9079999999999901</v>
+        <v>3.976</v>
       </c>
       <c r="S10" t="s">
         <v>3</v>
       </c>
       <c r="T10">
         <f>(N3+T3)/2</f>
-        <v>0.56388562466165648</v>
+        <v>0.56290616483955147</v>
       </c>
       <c r="U10">
         <f t="shared" ref="U10:V12" si="1">(O3+U3)/2</f>
-        <v>0.71075695444176845</v>
+        <v>0.70325863832747593</v>
       </c>
       <c r="V10">
         <f t="shared" si="1"/>
-        <v>1.053086016844025</v>
+        <v>1.0372054846919352</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>2.5029163987249552</v>
+        <v>2.5048219921148354</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -11378,28 +11378,28 @@
         <v>4</v>
       </c>
       <c r="L11">
-        <v>34.143999999999998</v>
+        <v>34.811999999999998</v>
       </c>
       <c r="M11">
-        <v>3.3079999999999998</v>
+        <v>4.0519999999999996</v>
       </c>
       <c r="N11">
-        <v>1.748</v>
+        <v>2.88</v>
       </c>
       <c r="S11" t="s">
         <v>4</v>
       </c>
       <c r="T11">
         <f t="shared" ref="T11:T12" si="3">(N4+T4)/2</f>
-        <v>0.56654709562495598</v>
+        <v>0.55915499339983543</v>
       </c>
       <c r="U11">
         <f t="shared" si="1"/>
-        <v>0.64255644208909257</v>
+        <v>0.63356278756364803</v>
       </c>
       <c r="V11">
         <f t="shared" si="1"/>
-        <v>1.132140557909155</v>
+        <v>1.0490689324068851</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>2.5029163987249552</v>
+        <v>2.5048219921148354</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
@@ -11422,28 +11422,28 @@
         <v>5</v>
       </c>
       <c r="L12">
-        <v>33.903999999999897</v>
+        <v>34.811999999999998</v>
       </c>
       <c r="M12">
-        <v>2.948</v>
+        <v>3.6760000000000002</v>
       </c>
       <c r="N12">
-        <v>1.21999999999999</v>
+        <v>2.19599999999999</v>
       </c>
       <c r="S12" t="s">
         <v>5</v>
       </c>
       <c r="T12">
         <f t="shared" si="3"/>
-        <v>0.56493817789016099</v>
+        <v>0.55641165695452943</v>
       </c>
       <c r="U12">
         <f t="shared" si="1"/>
-        <v>0.62755358289843255</v>
+        <v>0.616044825049615</v>
       </c>
       <c r="V12">
         <f t="shared" si="1"/>
-        <v>1.2851208695600649</v>
+        <v>1.1206196963157251</v>
       </c>
     </row>
   </sheetData>
@@ -11456,8 +11456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA73C6D-3945-4953-8713-B30546E74F33}">
   <dimension ref="B1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11538,8 +11538,11 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3">
+        <v>0.61691982424312597</v>
+      </c>
       <c r="D3">
-        <v>2.3032070303871199</v>
+        <v>2.30319240170261</v>
       </c>
       <c r="E3">
         <v>3.7018641914513899</v>
@@ -11547,8 +11550,11 @@
       <c r="G3" t="s">
         <v>3</v>
       </c>
+      <c r="H3">
+        <v>0.76997815524522195</v>
+      </c>
       <c r="I3">
-        <v>2.4162440133913599</v>
+        <v>2.4159877480262599</v>
       </c>
       <c r="J3">
         <v>3.9284996195778499</v>
@@ -11556,28 +11562,37 @@
       <c r="M3" t="s">
         <v>3</v>
       </c>
+      <c r="N3">
+        <v>0.207703642869289</v>
+      </c>
       <c r="O3">
-        <v>0.52774700224902904</v>
+        <v>0.52380302797496103</v>
       </c>
       <c r="P3">
-        <v>0.82484687169961002</v>
+        <v>0.81627811031620401</v>
       </c>
       <c r="S3" t="s">
         <v>3</v>
       </c>
+      <c r="T3">
+        <v>0.26933887045841298</v>
+      </c>
       <c r="U3">
-        <v>0.53639758183733899</v>
+        <v>0.53240215554843795</v>
       </c>
       <c r="V3">
-        <v>0.83786773374072698</v>
+        <v>0.82918172796489997</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4">
+        <v>0.53045611752252297</v>
+      </c>
       <c r="D4">
-        <v>2.3032070303871199</v>
+        <v>2.30319240170261</v>
       </c>
       <c r="E4">
         <v>3.7018641914513899</v>
@@ -11585,8 +11600,11 @@
       <c r="G4" t="s">
         <v>4</v>
       </c>
+      <c r="H4">
+        <v>0.77185907417117605</v>
+      </c>
       <c r="I4">
-        <v>2.4162440133913599</v>
+        <v>2.4159877480262599</v>
       </c>
       <c r="J4">
         <v>3.9284996195778499</v>
@@ -11594,28 +11612,37 @@
       <c r="M4" t="s">
         <v>4</v>
       </c>
+      <c r="N4">
+        <v>0.20521225412869901</v>
+      </c>
       <c r="O4">
-        <v>0.42667947752861402</v>
+        <v>0.48946652077349301</v>
       </c>
       <c r="P4">
-        <v>0.93736490447766896</v>
+        <v>0.918446417039681</v>
       </c>
       <c r="S4" t="s">
         <v>4</v>
       </c>
+      <c r="T4">
+        <v>0.26758293164112201</v>
+      </c>
       <c r="U4">
-        <v>0.42361075304279699</v>
+        <v>0.49309929735913499</v>
       </c>
       <c r="V4">
-        <v>0.93327018658476402</v>
+        <v>0.92566282002923195</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5">
+        <v>0.49173177194541801</v>
+      </c>
       <c r="D5">
-        <v>2.3032070303871199</v>
+        <v>2.30319240170261</v>
       </c>
       <c r="E5">
         <v>3.7018641914513899</v>
@@ -11623,8 +11650,11 @@
       <c r="G5" t="s">
         <v>5</v>
       </c>
+      <c r="H5">
+        <v>0.76894469682728195</v>
+      </c>
       <c r="I5">
-        <v>2.4162440133913599</v>
+        <v>2.4159877480262599</v>
       </c>
       <c r="J5">
         <v>3.9284996195778499</v>
@@ -11632,20 +11662,26 @@
       <c r="M5" t="s">
         <v>5</v>
       </c>
+      <c r="N5">
+        <v>0.202830426369733</v>
+      </c>
       <c r="O5">
-        <v>0.39490859269150902</v>
+        <v>0.45978507813706498</v>
       </c>
       <c r="P5">
-        <v>1.18154700947276</v>
+        <v>1.1142002831770299</v>
       </c>
       <c r="S5" t="s">
         <v>5</v>
       </c>
+      <c r="T5">
+        <v>0.265337472505426</v>
+      </c>
       <c r="U5">
-        <v>0.38104860183552802</v>
+        <v>0.44958383893642101</v>
       </c>
       <c r="V5">
-        <v>1.17138825635308</v>
+        <v>1.09142778958944</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
@@ -11703,11 +11739,11 @@
       </c>
       <c r="C10">
         <f>(C3+H3)/2</f>
-        <v>0</v>
+        <v>0.69344898974417402</v>
       </c>
       <c r="D10">
         <f t="shared" ref="D10:E12" si="0">(D3+I3)/2</f>
-        <v>2.3597255218892399</v>
+        <v>2.3595900748644349</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
@@ -11716,26 +11752,29 @@
       <c r="K10" t="s">
         <v>3</v>
       </c>
+      <c r="L10">
+        <v>35.567999999999998</v>
+      </c>
       <c r="M10">
-        <v>6.1</v>
+        <v>6.1679999999999904</v>
       </c>
       <c r="N10">
-        <v>5.2159999999999904</v>
+        <v>5.2839999999999998</v>
       </c>
       <c r="S10" t="s">
         <v>3</v>
       </c>
       <c r="T10">
         <f>(N3+T3)/2</f>
-        <v>0</v>
+        <v>0.23852125666385099</v>
       </c>
       <c r="U10">
         <f t="shared" ref="U10:V12" si="1">(O3+U3)/2</f>
-        <v>0.53207229204318396</v>
+        <v>0.52810259176169949</v>
       </c>
       <c r="V10">
         <f t="shared" si="1"/>
-        <v>0.8313573027201685</v>
+        <v>0.82272991914055194</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
@@ -11744,11 +11783,11 @@
       </c>
       <c r="C11">
         <f t="shared" ref="C11:C12" si="2">(C4+H4)/2</f>
-        <v>0</v>
+        <v>0.65115759584684951</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>2.3597255218892399</v>
+        <v>2.3595900748644349</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -11757,26 +11796,29 @@
       <c r="K11" t="s">
         <v>4</v>
       </c>
+      <c r="L11">
+        <v>34.816000000000003</v>
+      </c>
       <c r="M11">
-        <v>3.4279999999999999</v>
+        <v>4.2279999999999998</v>
       </c>
       <c r="N11">
-        <v>2.2759999999999998</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="S11" t="s">
         <v>4</v>
       </c>
       <c r="T11">
         <f t="shared" ref="T11:T12" si="3">(N4+T4)/2</f>
-        <v>0</v>
+        <v>0.23639759288491052</v>
       </c>
       <c r="U11">
         <f t="shared" si="1"/>
-        <v>0.42514511528570553</v>
+        <v>0.491282909066314</v>
       </c>
       <c r="V11">
         <f t="shared" si="1"/>
-        <v>0.93531754553121649</v>
+        <v>0.92205461853445647</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
@@ -11785,11 +11827,11 @@
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.63033823438634995</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>2.3597255218892399</v>
+        <v>2.3595900748644349</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
@@ -11798,26 +11840,29 @@
       <c r="K12" t="s">
         <v>5</v>
       </c>
+      <c r="L12">
+        <v>34.811999999999998</v>
+      </c>
       <c r="M12">
-        <v>2.9959999999999898</v>
+        <v>3.74399999999999</v>
       </c>
       <c r="N12">
-        <v>1.3640000000000001</v>
+        <v>2.3639999999999999</v>
       </c>
       <c r="S12" t="s">
         <v>5</v>
       </c>
       <c r="T12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.23408394943757949</v>
       </c>
       <c r="U12">
         <f t="shared" si="1"/>
-        <v>0.38797859726351852</v>
+        <v>0.454684458536743</v>
       </c>
       <c r="V12">
         <f t="shared" si="1"/>
-        <v>1.17646763291292</v>
+        <v>1.1028140363832351</v>
       </c>
     </row>
   </sheetData>

--- a/greedy_fitting/comparison/Comparison.xlsx
+++ b/greedy_fitting/comparison/Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hehon\Desktop\robodk\Motion-Primitive-Planning\greedy_fitting\comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A600BF-AAB6-4D66-BE1E-B7686F92FFCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04497A63-66CF-4D4F-BC57-3809A9742616}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38772" yWindow="2280" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MoveL" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="22">
   <si>
     <t>Speed/Blending</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>AVG AVG Error Table</t>
+  </si>
+  <si>
+    <t>Max Speed Table</t>
+  </si>
+  <si>
+    <t>Min Speed Table</t>
+  </si>
+  <si>
+    <t>AVG Speed Table</t>
   </si>
 </sst>
 </file>
@@ -548,6 +557,2436 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="631666271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average Speed (MoveL+MoveC)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(1)'!$Z$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(1)'!$AA$14:$AC$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MoveL+MoveC(1)'!$AA$15:$AC$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>49.654305673473303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>339.03315822309997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>440.61620477623399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17A3-4784-801B-1CD4E3B0FA77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(1)'!$Z$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(1)'!$AA$14:$AC$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MoveL+MoveC(1)'!$AA$16:$AC$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50.268827060774598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>432.14851249942399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>607.91995042866995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-17A3-4784-801B-1CD4E3B0FA77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(1)'!$Z$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(1)'!$AA$14:$AC$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MoveL+MoveC(1)'!$AA$17:$AC$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50.265334864094697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>476.16746245478799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>796.90553006918799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-17A3-4784-801B-1CD4E3B0FA77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="498202655"/>
+        <c:axId val="498204319"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="498202655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498204319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="498204319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498202655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average Max Error (MoveL+MoveC)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(0.5)'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(0.5)'!$C$9:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MoveL+MoveC(0.5)'!$C$10:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.69344898974417402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3595900748644349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8151819055146197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F1E-4FB3-AD2B-DFAE5606DEF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(0.5)'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(0.5)'!$C$9:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MoveL+MoveC(0.5)'!$C$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.65115759584684951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3595900748644349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8151819055146197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9F1E-4FB3-AD2B-DFAE5606DEF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(0.5)'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(0.5)'!$C$9:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MoveL+MoveC(0.5)'!$C$12:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.63033823438634995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3595900748644349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8151819055146197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9F1E-4FB3-AD2B-DFAE5606DEF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="631616351"/>
+        <c:axId val="631634239"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="631616351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631634239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="631634239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631616351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average Average Error (MoveL+MoveC)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(0.5)'!$S$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(0.5)'!$T$9:$V$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MoveL+MoveC(0.5)'!$T$10:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.23852125666385099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52810259176169949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82272991914055194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F668-4641-B7F9-0A2BBEAB44DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(0.5)'!$S$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(0.5)'!$T$9:$V$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MoveL+MoveC(0.5)'!$T$11:$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.23639759288491052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.491282909066314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92205461853445647</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F668-4641-B7F9-0A2BBEAB44DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(0.5)'!$S$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(0.5)'!$T$9:$V$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MoveL+MoveC(0.5)'!$T$12:$V$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.23408394943757949</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.454684458536743</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1028140363832351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F668-4641-B7F9-0A2BBEAB44DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="498202655"/>
+        <c:axId val="498204319"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="498202655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498204319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="498204319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498202655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> (MoveL+MoveC)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(0.5)'!$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(0.5)'!$L$9:$N$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MoveL+MoveC(0.5)'!$L$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>35.567999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1679999999999904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2839999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9341-42D7-9C56-E618C6C5B40C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(0.5)'!$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(0.5)'!$L$9:$N$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MoveL+MoveC(0.5)'!$L$11:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>34.816000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3679999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9341-42D7-9C56-E618C6C5B40C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(0.5)'!$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(0.5)'!$L$9:$N$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MoveL+MoveC(0.5)'!$L$12:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>34.811999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.74399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3639999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9341-42D7-9C56-E618C6C5B40C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1337324335"/>
+        <c:axId val="1337326415"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1337324335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1337326415"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1337326415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1337324335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average Speed (MoveL+MoveC)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(0.5)'!$Z$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(0.5)'!$AA$14:$AC$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MoveL+MoveC(0.5)'!$AA$15:$AC$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>49.225402108898102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>284.485017310464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>332.12870361517201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-52E2-4588-9079-9462B2ED5562}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(0.5)'!$Z$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(0.5)'!$AA$14:$AC$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MoveL+MoveC(0.5)'!$AA$16:$AC$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50.260194123068999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>414.385682163512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>520.27367824901205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-52E2-4588-9079-9462B2ED5562}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(0.5)'!$Z$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>z10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MoveL+MoveC(0.5)'!$AA$14:$AC$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>v50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>v500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>v5000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MoveL+MoveC(0.5)'!$AA$17:$AC$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50.2629229002141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>467.57385723649901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>740.52015130202301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-52E2-4588-9079-9462B2ED5562}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="498202655"/>
+        <c:axId val="498204319"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="498202655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498204319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="498204319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498202655"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4527,6 +6966,206 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5402,6 +8041,2586 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -9866,6 +15085,201 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="圖表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BA8E3F8-28E9-4153-B428-7B4F0DE412F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>883920</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1061FD1E-22FD-40B9-A2E3-A2F8CFAE76A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82041304-DA4F-4968-877A-3A307A7D0E6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC21A3E4-C5A0-4B40-831C-FAD12FE24814}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6CEE94-A60C-4E24-98B9-08ECC00B6A61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11033,10 +16447,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48695607-6AE5-4958-BF00-39252E469FD1}">
-  <dimension ref="B1:V12"/>
+  <dimension ref="B1:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11051,7 +16465,7 @@
     <col min="28" max="28" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>7</v>
       </c>
@@ -11064,8 +16478,11 @@
       <c r="T1" t="s">
         <v>10</v>
       </c>
+      <c r="AA1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -11114,8 +16531,17 @@
       <c r="V2" t="s">
         <v>6</v>
       </c>
+      <c r="AA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -11164,8 +16590,20 @@
       <c r="V3">
         <v>1.0423384935995801</v>
       </c>
+      <c r="Z3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA3">
+        <v>0.83982527547945396</v>
+      </c>
+      <c r="AB3">
+        <v>0.83982527547945396</v>
+      </c>
+      <c r="AC3">
+        <v>0.83982527547945396</v>
+      </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -11214,8 +16652,20 @@
       <c r="V4">
         <v>1.05376455103356</v>
       </c>
+      <c r="Z4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4">
+        <v>0.83982527547945396</v>
+      </c>
+      <c r="AB4">
+        <v>0.83982527547945396</v>
+      </c>
+      <c r="AC4">
+        <v>0.83982527547945396</v>
+      </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -11264,8 +16714,25 @@
       <c r="V5">
         <v>1.1107661617751301</v>
       </c>
+      <c r="Z5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA5">
+        <v>0.83982527547945396</v>
+      </c>
+      <c r="AB5">
+        <v>0.83982527547945396</v>
+      </c>
+      <c r="AC5">
+        <v>0.83982527547945396</v>
+      </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="AA7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -11275,8 +16742,17 @@
       <c r="T8" t="s">
         <v>18</v>
       </c>
+      <c r="AA8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -11313,8 +16789,20 @@
       <c r="V9" t="s">
         <v>6</v>
       </c>
+      <c r="Z9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA9">
+        <v>51.708039337026598</v>
+      </c>
+      <c r="AB9">
+        <v>505.260276987162</v>
+      </c>
+      <c r="AC9">
+        <v>1432.0645561219101</v>
+      </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -11357,8 +16845,20 @@
         <f t="shared" si="1"/>
         <v>1.0372054846919352</v>
       </c>
+      <c r="Z10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10">
+        <v>53.617400638643304</v>
+      </c>
+      <c r="AB10">
+        <v>504.93287779278597</v>
+      </c>
+      <c r="AC10">
+        <v>1423.3100173744399</v>
+      </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -11401,8 +16901,20 @@
         <f t="shared" si="1"/>
         <v>1.0490689324068851</v>
       </c>
+      <c r="Z11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <v>51.597291988588502</v>
+      </c>
+      <c r="AB11">
+        <v>518.69763831973</v>
+      </c>
+      <c r="AC11">
+        <v>1489.0271312985601</v>
+      </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>5</v>
       </c>
@@ -11444,6 +16956,64 @@
       <c r="V12">
         <f t="shared" si="1"/>
         <v>1.1206196963157251</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="AA13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="AA14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Z15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA15">
+        <v>49.654305673473303</v>
+      </c>
+      <c r="AB15">
+        <v>339.03315822309997</v>
+      </c>
+      <c r="AC15">
+        <v>440.61620477623399</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Z16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA16">
+        <v>50.268827060774598</v>
+      </c>
+      <c r="AB16">
+        <v>432.14851249942399</v>
+      </c>
+      <c r="AC16">
+        <v>607.91995042866995</v>
+      </c>
+    </row>
+    <row r="17" spans="26:29" x14ac:dyDescent="0.3">
+      <c r="Z17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA17">
+        <v>50.265334864094697</v>
+      </c>
+      <c r="AB17">
+        <v>476.16746245478799</v>
+      </c>
+      <c r="AC17">
+        <v>796.90553006918799</v>
       </c>
     </row>
   </sheetData>
@@ -11454,10 +17024,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA73C6D-3945-4953-8713-B30546E74F33}">
-  <dimension ref="B1:V12"/>
+  <dimension ref="B1:AC17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11470,7 +17040,7 @@
     <col min="19" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>7</v>
       </c>
@@ -11483,8 +17053,11 @@
       <c r="T1" t="s">
         <v>10</v>
       </c>
+      <c r="AA1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -11533,8 +17106,17 @@
       <c r="V2" t="s">
         <v>6</v>
       </c>
+      <c r="AA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -11583,8 +17165,20 @@
       <c r="V3">
         <v>0.82918172796489997</v>
       </c>
+      <c r="Z3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA3">
+        <v>0.83976420322601197</v>
+      </c>
+      <c r="AB3">
+        <v>0.83976420322601197</v>
+      </c>
+      <c r="AC3">
+        <v>0.83976420322601197</v>
+      </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -11633,8 +17227,20 @@
       <c r="V4">
         <v>0.92566282002923195</v>
       </c>
+      <c r="Z4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4">
+        <v>0.83976420322601197</v>
+      </c>
+      <c r="AB4">
+        <v>0.83976420322601197</v>
+      </c>
+      <c r="AC4">
+        <v>0.83976420322601197</v>
+      </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -11683,8 +17289,25 @@
       <c r="V5">
         <v>1.09142778958944</v>
       </c>
+      <c r="Z5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA5">
+        <v>0.83976420322601197</v>
+      </c>
+      <c r="AB5">
+        <v>0.83976420322601197</v>
+      </c>
+      <c r="AC5">
+        <v>0.83976420322601197</v>
+      </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="AA7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -11694,8 +17317,17 @@
       <c r="T8" t="s">
         <v>18</v>
       </c>
+      <c r="AA8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -11732,8 +17364,20 @@
       <c r="V9" t="s">
         <v>6</v>
       </c>
+      <c r="Z9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA9">
+        <v>51.676531188285502</v>
+      </c>
+      <c r="AB9">
+        <v>504.92905928015603</v>
+      </c>
+      <c r="AC9">
+        <v>1288.5275087397699</v>
+      </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -11776,8 +17420,20 @@
         <f t="shared" si="1"/>
         <v>0.82272991914055194</v>
       </c>
+      <c r="Z10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10">
+        <v>53.8662703881811</v>
+      </c>
+      <c r="AB10">
+        <v>504.84571561424099</v>
+      </c>
+      <c r="AC10">
+        <v>1267.34322067579</v>
+      </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -11820,8 +17476,20 @@
         <f t="shared" si="1"/>
         <v>0.92205461853445647</v>
       </c>
+      <c r="Z11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <v>51.7273678044685</v>
+      </c>
+      <c r="AB11">
+        <v>511.02197646963998</v>
+      </c>
+      <c r="AC11">
+        <v>1301.25416935914</v>
+      </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>5</v>
       </c>
@@ -11865,7 +17533,66 @@
         <v>1.1028140363832351</v>
       </c>
     </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="AA13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="AA14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Z15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA15">
+        <v>49.225402108898102</v>
+      </c>
+      <c r="AB15">
+        <v>284.485017310464</v>
+      </c>
+      <c r="AC15">
+        <v>332.12870361517201</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Z16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA16">
+        <v>50.260194123068999</v>
+      </c>
+      <c r="AB16">
+        <v>414.385682163512</v>
+      </c>
+      <c r="AC16">
+        <v>520.27367824901205</v>
+      </c>
+    </row>
+    <row r="17" spans="26:29" x14ac:dyDescent="0.3">
+      <c r="Z17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA17">
+        <v>50.2629229002141</v>
+      </c>
+      <c r="AB17">
+        <v>467.57385723649901</v>
+      </c>
+      <c r="AC17">
+        <v>740.52015130202301</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>